--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Data</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>Adesivo Strech Bianco</t>
+  </si>
+  <si>
+    <t>Saldakeeva Elena</t>
+  </si>
+  <si>
+    <t>Adesivo Leggero Bianco</t>
+  </si>
+  <si>
+    <t>Katia D'Alesio</t>
+  </si>
+  <si>
+    <t>Shopping Bag</t>
   </si>
 </sst>
 </file>
@@ -313,6 +325,40 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="6">
+        <v>43216</v>
+      </c>
+      <c r="B10" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6">
+        <v>43217</v>
+      </c>
+      <c r="B11" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="E11" s="10">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Data</t>
   </si>
@@ -71,10 +71,16 @@
     <t>Adesivo Leggero Bianco</t>
   </si>
   <si>
-    <t>Katia D'Alesio</t>
+    <t>D'alesio Katia</t>
   </si>
   <si>
     <t>Shopping Bag</t>
+  </si>
+  <si>
+    <t>Lanzi Patrizia</t>
+  </si>
+  <si>
+    <t>Bindello Nero</t>
   </si>
 </sst>
 </file>
@@ -359,6 +365,23 @@
         <v>40</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="6">
+        <v>43217</v>
+      </c>
+      <c r="B12" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Data</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>Bindello Nero</t>
+  </si>
+  <si>
+    <t>Bertolotti Daniela</t>
+  </si>
+  <si>
+    <t>Tessuto lana a quadri</t>
+  </si>
+  <si>
+    <t>Cristina Sarah</t>
   </si>
 </sst>
 </file>
@@ -382,6 +391,40 @@
         <v>2</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="6">
+        <v>43227</v>
+      </c>
+      <c r="B13" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6">
+        <v>43227</v>
+      </c>
+      <c r="B14" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E14" s="10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Data</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Cristina Sarah</t>
+  </si>
+  <si>
+    <t>Marsicovetere Maria</t>
+  </si>
+  <si>
+    <t>Tessuto a quadri</t>
   </si>
 </sst>
 </file>
@@ -425,6 +431,23 @@
         <v>2</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="6">
+        <v>43228</v>
+      </c>
+      <c r="B15" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1.1</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Data</t>
   </si>
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>Tessuto a quadri</t>
+  </si>
+  <si>
+    <t>Tessuto n 10</t>
+  </si>
+  <si>
+    <t>Scalimetri</t>
+  </si>
+  <si>
+    <t>Puzziferri Domenico</t>
+  </si>
+  <si>
+    <t>Adesivo Pesante Bianco</t>
   </si>
 </sst>
 </file>
@@ -448,6 +460,57 @@
         <v>1.1</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="6">
+        <v>43229</v>
+      </c>
+      <c r="B16" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E16" s="10">
+        <v>.8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6">
+        <v>43229</v>
+      </c>
+      <c r="B17" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="E17" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6">
+        <v>43230</v>
+      </c>
+      <c r="B18" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Data</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>Adesivo Pesante Bianco</t>
+  </si>
+  <si>
+    <t>Currò Gaetano</t>
+  </si>
+  <si>
+    <t>Spilii</t>
+  </si>
+  <si>
+    <t>Scatole</t>
+  </si>
+  <si>
+    <t>Adesivo Leggero nero</t>
   </si>
 </sst>
 </file>
@@ -511,6 +523,40 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="6">
+        <v>43228</v>
+      </c>
+      <c r="B19" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s" s="9">
+        <v>35</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6">
+        <v>43231</v>
+      </c>
+      <c r="B20" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E20" s="10">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Data</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>Adesivo Leggero nero</t>
+  </si>
+  <si>
+    <t>Segreteria</t>
+  </si>
+  <si>
+    <t>Scotch Magic</t>
   </si>
 </sst>
 </file>
@@ -557,6 +563,23 @@
         <v>80</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="6">
+        <v>43231</v>
+      </c>
+      <c r="B21" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="E21" s="10">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Data</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>Scotch Magic</t>
+  </si>
+  <si>
+    <t>Rocche filo nero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocche filo bianco </t>
   </si>
 </sst>
 </file>
@@ -580,6 +586,57 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="6">
+        <v>43235</v>
+      </c>
+      <c r="B22" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="E22" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6">
+        <v>43235</v>
+      </c>
+      <c r="B23" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="E23" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6">
+        <v>43235</v>
+      </c>
+      <c r="B24" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="E24" s="10">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Data</t>
   </si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t xml:space="preserve">Rocche filo bianco </t>
+  </si>
+  <si>
+    <t>Buste porta documenti plastica</t>
+  </si>
+  <si>
+    <t>Post-It Piccoli</t>
+  </si>
+  <si>
+    <t>blocchetti</t>
+  </si>
+  <si>
+    <t>Tessuto cotone n.7</t>
   </si>
 </sst>
 </file>
@@ -637,6 +649,57 @@
         <v>5</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="6">
+        <v>43239</v>
+      </c>
+      <c r="B25" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="E25" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6">
+        <v>43239</v>
+      </c>
+      <c r="B26" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s" s="8">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s" s="9">
+        <v>43</v>
+      </c>
+      <c r="E26" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6">
+        <v>43241</v>
+      </c>
+      <c r="B27" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s" s="8">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E27" s="10">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Data</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>Tessuto cotone n.7</t>
+  </si>
+  <si>
+    <t>Aghi 3-9</t>
+  </si>
+  <si>
+    <t>Bustine</t>
   </si>
 </sst>
 </file>
@@ -700,6 +706,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="6">
+        <v>43241</v>
+      </c>
+      <c r="B28" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s" s="8">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s" s="9">
+        <v>46</v>
+      </c>
+      <c r="E28" s="10">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Data</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>Bustine</t>
+  </si>
+  <si>
+    <t>Spilii 250 gr.</t>
+  </si>
+  <si>
+    <t>Centimetro</t>
   </si>
 </sst>
 </file>
@@ -723,6 +729,40 @@
         <v>4</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="6">
+        <v>43242</v>
+      </c>
+      <c r="B29" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s" s="8">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="E29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6">
+        <v>43242</v>
+      </c>
+      <c r="B30" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s" s="8">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="E30" s="10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Data</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Centimetro</t>
+  </si>
+  <si>
+    <t>Silesia Nera</t>
   </si>
 </sst>
 </file>
@@ -763,6 +766,23 @@
         <v>2</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="6">
+        <v>43243</v>
+      </c>
+      <c r="B31" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s" s="8">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E31" s="10">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Data</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Silesia Nera</t>
+  </si>
+  <si>
+    <t>Borghesan Simona</t>
   </si>
 </sst>
 </file>
@@ -783,6 +786,40 @@
         <v>9</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="6">
+        <v>43243</v>
+      </c>
+      <c r="B32" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s" s="8">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6">
+        <v>43244</v>
+      </c>
+      <c r="B33" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="E33" s="10">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Data</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Borghesan Simona</t>
+  </si>
+  <si>
+    <t>Tela Pesante</t>
   </si>
 </sst>
 </file>
@@ -820,6 +823,40 @@
         <v>5</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="6">
+        <v>43245</v>
+      </c>
+      <c r="B34" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s" s="8">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E34" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6">
+        <v>43245</v>
+      </c>
+      <c r="B35" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E35" s="10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -857,6 +857,23 @@
         <v>2</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="6">
+        <v>43249</v>
+      </c>
+      <c r="B36" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E36" s="10">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Data</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Tela Pesante</t>
+  </si>
+  <si>
+    <t>Silesia Bianca</t>
   </si>
 </sst>
 </file>
@@ -874,6 +877,74 @@
         <v>26</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="6">
+        <v>43255</v>
+      </c>
+      <c r="B37" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E37" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6">
+        <v>43255</v>
+      </c>
+      <c r="B38" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s" s="8">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E38" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6">
+        <v>43255</v>
+      </c>
+      <c r="B39" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E39" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6">
+        <v>43260</v>
+      </c>
+      <c r="B40" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E40" s="10">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Data</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Silesia Bianca</t>
+  </si>
+  <si>
+    <t>tessuto n.5</t>
   </si>
 </sst>
 </file>
@@ -945,6 +948,74 @@
         <v>7</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="6">
+        <v>43263</v>
+      </c>
+      <c r="B41" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E41" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6">
+        <v>43262</v>
+      </c>
+      <c r="B42" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E42" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6">
+        <v>43263</v>
+      </c>
+      <c r="B43" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E43" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6">
+        <v>43263</v>
+      </c>
+      <c r="B44" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="C44" t="s" s="8">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E44" s="10">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -1016,6 +1016,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="6">
+        <v>43265</v>
+      </c>
+      <c r="B45" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E45" s="10">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="540" windowWidth="20775" windowHeight="9915"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="57">
   <si>
     <t>Data</t>
   </si>
@@ -171,27 +176,26 @@
   </si>
   <si>
     <t>tessuto n.5</t>
+  </si>
+  <si>
+    <t>Di Cristofaro Angelo</t>
+  </si>
+  <si>
+    <t>Bic Nere</t>
+  </si>
+  <si>
+    <t>Porta Abiti Lunghi Soffietto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt formatCode="@" numFmtId="165"/>
-    <numFmt formatCode="mm/dd/yyyy" numFmtId="166"/>
-    <numFmt formatCode="[hh]:mm:ss" numFmtId="167"/>
-    <numFmt formatCode="dd/mm/yyyy" numFmtId="168"/>
-    <numFmt formatCode="@" numFmtId="169"/>
-    <numFmt formatCode="@" numFmtId="170"/>
-    <numFmt formatCode="@" numFmtId="171"/>
-    <numFmt formatCode="@" numFmtId="173"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -199,7 +203,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -221,818 +225,1138 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="170" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="171" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="173" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetFormatPr baseColWidth="21" defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="6">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
         <v>43210</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="6">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
         <v>43210</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="6">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
         <v>43210</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="8">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6">
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
         <v>43207</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s" s="8">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6">
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
         <v>43207</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s" s="8">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="6">
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
         <v>43208</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s" s="8">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6">
         <v>3</v>
       </c>
-      <c r="F7" t="s" s="11">
+      <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="6">
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
         <v>43216</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s" s="8">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="6">
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
         <v>43216</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s" s="8">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="6">
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
         <v>43216</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s" s="8">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="6">
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
         <v>43217</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s" s="8">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="6">
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
         <v>43217</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s" s="8">
+      <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="6">
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
         <v>43227</v>
       </c>
-      <c r="B13" t="s" s="7">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s" s="8">
+      <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="6">
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
         <v>43227</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s" s="8">
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D14" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="6">
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
         <v>43228</v>
       </c>
-      <c r="B15" t="s" s="7">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s" s="8">
+      <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D15" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6">
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
         <v>43229</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s" s="8">
+      <c r="C16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E16" s="10">
-        <v>.8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6">
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
         <v>43229</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="8">
+      <c r="C17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="6">
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
         <v>43230</v>
       </c>
-      <c r="B18" t="s" s="7">
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s" s="8">
+      <c r="C18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D18" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6">
         <v>1.5</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="6">
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>43228</v>
       </c>
-      <c r="B19" t="s" s="7">
+      <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s" s="8">
+      <c r="C19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D19" t="s" s="9">
+      <c r="D19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="6">
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
         <v>43231</v>
       </c>
-      <c r="B20" t="s" s="7">
+      <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s" s="8">
+      <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D20" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="D20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="6">
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
         <v>43231</v>
       </c>
-      <c r="B21" t="s" s="7">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C21" t="s" s="8">
+      <c r="C21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D21" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="D21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="6">
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
         <v>43235</v>
       </c>
-      <c r="B22" t="s" s="7">
+      <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C22" t="s" s="8">
+      <c r="C22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D22" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E22" s="10">
+      <c r="D22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="6">
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
         <v>43235</v>
       </c>
-      <c r="B23" t="s" s="7">
+      <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C23" t="s" s="8">
+      <c r="C23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D23" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E23" s="10">
+      <c r="D23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="6">
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
         <v>43235</v>
       </c>
-      <c r="B24" t="s" s="7">
+      <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C24" t="s" s="8">
+      <c r="C24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D24" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="D24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="6">
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
         <v>43239</v>
       </c>
-      <c r="B25" t="s" s="7">
+      <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C25" t="s" s="8">
+      <c r="C25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D25" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="D25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="6">
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
         <v>43239</v>
       </c>
-      <c r="B26" t="s" s="7">
+      <c r="B26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C26" t="s" s="8">
+      <c r="C26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D26" t="s" s="9">
+      <c r="D26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6">
+      <c r="E26" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
         <v>43241</v>
       </c>
-      <c r="B27" t="s" s="7">
+      <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C27" t="s" s="8">
+      <c r="C27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D27" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="D27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="6">
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
         <v>43241</v>
       </c>
-      <c r="B28" t="s" s="7">
+      <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C28" t="s" s="8">
+      <c r="C28" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D28" t="s" s="9">
+      <c r="D28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="6">
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
         <v>43242</v>
       </c>
-      <c r="B29" t="s" s="7">
+      <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C29" t="s" s="8">
+      <c r="C29" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D29" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E29" s="10">
+      <c r="D29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="6">
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
         <v>43242</v>
       </c>
-      <c r="B30" t="s" s="7">
+      <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C30" t="s" s="8">
+      <c r="C30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D30" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E30" s="10">
+      <c r="D30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="6">
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
         <v>43243</v>
       </c>
-      <c r="B31" t="s" s="7">
+      <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C31" t="s" s="8">
+      <c r="C31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D31" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="D31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="6">
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
         <v>43243</v>
       </c>
-      <c r="B32" t="s" s="7">
+      <c r="B32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C32" t="s" s="8">
+      <c r="C32" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D32" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="D32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="6">
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
         <v>43244</v>
       </c>
-      <c r="B33" t="s" s="7">
+      <c r="B33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C33" t="s" s="8">
+      <c r="C33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D33" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E33" s="10">
+      <c r="D33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="6">
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
         <v>43245</v>
       </c>
-      <c r="B34" t="s" s="7">
+      <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C34" t="s" s="8">
+      <c r="C34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D34" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E34" s="10">
+      <c r="D34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="6">
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
         <v>43245</v>
       </c>
-      <c r="B35" t="s" s="7">
+      <c r="B35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C35" t="s" s="8">
+      <c r="C35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D35" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E35" s="10">
+      <c r="D35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="6">
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
         <v>43249</v>
       </c>
-      <c r="B36" t="s" s="7">
+      <c r="B36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="8">
+      <c r="C36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D36" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E36" s="10">
+      <c r="D36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="6">
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
         <v>43255</v>
       </c>
-      <c r="B37" t="s" s="7">
+      <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C37" t="s" s="8">
+      <c r="C37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D37" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E37" s="10">
+      <c r="D37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="6">
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
         <v>43255</v>
       </c>
-      <c r="B38" t="s" s="7">
+      <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C38" t="s" s="8">
+      <c r="C38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D38" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E38" s="10">
+      <c r="D38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="6">
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
         <v>43255</v>
       </c>
-      <c r="B39" t="s" s="7">
+      <c r="B39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C39" t="s" s="8">
+      <c r="C39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D39" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E39" s="10">
+      <c r="D39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="6">
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
         <v>43260</v>
       </c>
-      <c r="B40" t="s" s="7">
+      <c r="B40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C40" t="s" s="8">
+      <c r="C40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D40" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E40" s="10">
+      <c r="D40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="6">
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
         <v>43263</v>
       </c>
-      <c r="B41" t="s" s="7">
+      <c r="B41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="8">
+      <c r="C41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D41" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E41" s="10">
+      <c r="D41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="6">
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
         <v>43262</v>
       </c>
-      <c r="B42" t="s" s="7">
+      <c r="B42" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C42" t="s" s="8">
+      <c r="C42" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D42" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E42" s="10">
+      <c r="D42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="6">
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
         <v>43263</v>
       </c>
-      <c r="B43" t="s" s="7">
+      <c r="B43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C43" t="s" s="8">
+      <c r="C43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D43" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E43" s="10">
+      <c r="D43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="6">
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
         <v>43263</v>
       </c>
-      <c r="B44" t="s" s="7">
+      <c r="B44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C44" t="s" s="8">
+      <c r="C44" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D44" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E44" s="10">
+      <c r="D44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="6">
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
         <v>43265</v>
       </c>
-      <c r="B45" t="s" s="7">
+      <c r="B45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C45" t="s" s="8">
+      <c r="C45" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D45" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E45" s="10">
+      <c r="D45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="6">
         <v>15</v>
       </c>
     </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>43269</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>43269</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="6">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Data</t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>Porta Abiti Lunghi Soffietto</t>
+  </si>
+  <si>
+    <t>Melton</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Punri graffettatrice</t>
   </si>
 </sst>
 </file>
@@ -1093,6 +1102,91 @@
         <v>50</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" s="6">
+        <v>43271</v>
+      </c>
+      <c r="B49" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="C49" t="s" s="8">
+        <v>51</v>
+      </c>
+      <c r="D49" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E49" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6">
+        <v>43270</v>
+      </c>
+      <c r="B50" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s" s="8">
+        <v>57</v>
+      </c>
+      <c r="D50" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6">
+        <v>43273</v>
+      </c>
+      <c r="B51" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s" s="8">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E51" s="10">
+        <v>.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6">
+        <v>43273</v>
+      </c>
+      <c r="B52" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="D52" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E52" s="10">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6">
+        <v>43273</v>
+      </c>
+      <c r="B53" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="C53" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="D53" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="E53" s="10">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="540" windowWidth="20775" windowHeight="9915"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="61">
   <si>
     <t>Data</t>
   </si>
@@ -189,27 +194,20 @@
   </si>
   <si>
     <t>Punri graffettatrice</t>
+  </si>
+  <si>
+    <t>Conidi Mariangela</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt formatCode="@" numFmtId="165"/>
-    <numFmt formatCode="mm/dd/yyyy" numFmtId="166"/>
-    <numFmt formatCode="[hh]:mm:ss" numFmtId="167"/>
-    <numFmt formatCode="dd/mm/yyyy" numFmtId="168"/>
-    <numFmt formatCode="@" numFmtId="169"/>
-    <numFmt formatCode="@" numFmtId="170"/>
-    <numFmt formatCode="@" numFmtId="171"/>
-    <numFmt formatCode="@" numFmtId="173"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -217,7 +215,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -239,954 +237,1342 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="170" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="171" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="173" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetFormatPr baseColWidth="21" defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="6">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
         <v>43210</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="6">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
         <v>43210</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="6">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
         <v>43210</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="8">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6">
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
         <v>43207</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s" s="8">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6">
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
         <v>43207</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s" s="8">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="6">
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
         <v>43208</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s" s="8">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6">
         <v>3</v>
       </c>
-      <c r="F7" t="s" s="11">
+      <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="6">
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
         <v>43216</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s" s="8">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="6">
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
         <v>43216</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s" s="8">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="6">
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
         <v>43216</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s" s="8">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="6">
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
         <v>43217</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s" s="8">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="6">
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
         <v>43217</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s" s="8">
+      <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="6">
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
         <v>43227</v>
       </c>
-      <c r="B13" t="s" s="7">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s" s="8">
+      <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="6">
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
         <v>43227</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s" s="8">
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D14" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="6">
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
         <v>43228</v>
       </c>
-      <c r="B15" t="s" s="7">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s" s="8">
+      <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D15" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6">
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
         <v>43229</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s" s="8">
+      <c r="C16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E16" s="10">
-        <v>.8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6">
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
         <v>43229</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="8">
+      <c r="C17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="6">
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
         <v>43230</v>
       </c>
-      <c r="B18" t="s" s="7">
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s" s="8">
+      <c r="C18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D18" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6">
         <v>1.5</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="6">
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>43228</v>
       </c>
-      <c r="B19" t="s" s="7">
+      <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s" s="8">
+      <c r="C19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D19" t="s" s="9">
+      <c r="D19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="6">
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
         <v>43231</v>
       </c>
-      <c r="B20" t="s" s="7">
+      <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s" s="8">
+      <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D20" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="D20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="6">
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
         <v>43231</v>
       </c>
-      <c r="B21" t="s" s="7">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C21" t="s" s="8">
+      <c r="C21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D21" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="D21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="6">
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
         <v>43235</v>
       </c>
-      <c r="B22" t="s" s="7">
+      <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C22" t="s" s="8">
+      <c r="C22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D22" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E22" s="10">
+      <c r="D22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="6">
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
         <v>43235</v>
       </c>
-      <c r="B23" t="s" s="7">
+      <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C23" t="s" s="8">
+      <c r="C23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D23" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E23" s="10">
+      <c r="D23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="6">
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
         <v>43235</v>
       </c>
-      <c r="B24" t="s" s="7">
+      <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C24" t="s" s="8">
+      <c r="C24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D24" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="D24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="6">
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
         <v>43239</v>
       </c>
-      <c r="B25" t="s" s="7">
+      <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C25" t="s" s="8">
+      <c r="C25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D25" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="D25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="6">
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
         <v>43239</v>
       </c>
-      <c r="B26" t="s" s="7">
+      <c r="B26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C26" t="s" s="8">
+      <c r="C26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D26" t="s" s="9">
+      <c r="D26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6">
+      <c r="E26" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
         <v>43241</v>
       </c>
-      <c r="B27" t="s" s="7">
+      <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C27" t="s" s="8">
+      <c r="C27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D27" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="D27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="6">
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
         <v>43241</v>
       </c>
-      <c r="B28" t="s" s="7">
+      <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C28" t="s" s="8">
+      <c r="C28" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D28" t="s" s="9">
+      <c r="D28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="6">
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
         <v>43242</v>
       </c>
-      <c r="B29" t="s" s="7">
+      <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C29" t="s" s="8">
+      <c r="C29" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D29" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E29" s="10">
+      <c r="D29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="6">
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
         <v>43242</v>
       </c>
-      <c r="B30" t="s" s="7">
+      <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C30" t="s" s="8">
+      <c r="C30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D30" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E30" s="10">
+      <c r="D30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="6">
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
         <v>43243</v>
       </c>
-      <c r="B31" t="s" s="7">
+      <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C31" t="s" s="8">
+      <c r="C31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D31" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="D31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="6">
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
         <v>43243</v>
       </c>
-      <c r="B32" t="s" s="7">
+      <c r="B32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C32" t="s" s="8">
+      <c r="C32" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D32" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="D32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="6">
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
         <v>43244</v>
       </c>
-      <c r="B33" t="s" s="7">
+      <c r="B33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C33" t="s" s="8">
+      <c r="C33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D33" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E33" s="10">
+      <c r="D33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="6">
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
         <v>43245</v>
       </c>
-      <c r="B34" t="s" s="7">
+      <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C34" t="s" s="8">
+      <c r="C34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D34" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E34" s="10">
+      <c r="D34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="6">
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
         <v>43245</v>
       </c>
-      <c r="B35" t="s" s="7">
+      <c r="B35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C35" t="s" s="8">
+      <c r="C35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D35" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E35" s="10">
+      <c r="D35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="6">
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
         <v>43249</v>
       </c>
-      <c r="B36" t="s" s="7">
+      <c r="B36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="8">
+      <c r="C36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D36" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E36" s="10">
+      <c r="D36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="6">
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
         <v>43255</v>
       </c>
-      <c r="B37" t="s" s="7">
+      <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C37" t="s" s="8">
+      <c r="C37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D37" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E37" s="10">
+      <c r="D37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="6">
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
         <v>43255</v>
       </c>
-      <c r="B38" t="s" s="7">
+      <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C38" t="s" s="8">
+      <c r="C38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D38" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E38" s="10">
+      <c r="D38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="6">
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
         <v>43255</v>
       </c>
-      <c r="B39" t="s" s="7">
+      <c r="B39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C39" t="s" s="8">
+      <c r="C39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D39" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E39" s="10">
+      <c r="D39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="6">
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
         <v>43260</v>
       </c>
-      <c r="B40" t="s" s="7">
+      <c r="B40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C40" t="s" s="8">
+      <c r="C40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D40" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E40" s="10">
+      <c r="D40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="6">
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
         <v>43263</v>
       </c>
-      <c r="B41" t="s" s="7">
+      <c r="B41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="8">
+      <c r="C41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D41" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E41" s="10">
+      <c r="D41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="6">
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
         <v>43262</v>
       </c>
-      <c r="B42" t="s" s="7">
+      <c r="B42" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C42" t="s" s="8">
+      <c r="C42" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D42" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E42" s="10">
+      <c r="D42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="6">
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
         <v>43263</v>
       </c>
-      <c r="B43" t="s" s="7">
+      <c r="B43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C43" t="s" s="8">
+      <c r="C43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D43" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E43" s="10">
+      <c r="D43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="6">
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
         <v>43263</v>
       </c>
-      <c r="B44" t="s" s="7">
+      <c r="B44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C44" t="s" s="8">
+      <c r="C44" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D44" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E44" s="10">
+      <c r="D44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="6">
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
         <v>43265</v>
       </c>
-      <c r="B45" t="s" s="7">
+      <c r="B45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C45" t="s" s="8">
+      <c r="C45" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D45" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E45" s="10">
+      <c r="D45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="6">
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
         <v>43269</v>
       </c>
-      <c r="B46" t="s" s="7">
+      <c r="B46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C46" t="s" s="8">
+      <c r="C46" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D46" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E46" s="10">
+      <c r="D46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="6">
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
         <v>43269</v>
       </c>
-      <c r="B47" t="s" s="7">
+      <c r="B47" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C47" t="s" s="8">
+      <c r="C47" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D47" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E47" s="10">
+      <c r="D47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="6">
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
         <v>43270</v>
       </c>
-      <c r="B48" t="s" s="7">
+      <c r="B48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C48" t="s" s="8">
+      <c r="C48" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D48" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E48" s="10">
+      <c r="D48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="6">
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
         <v>43271</v>
       </c>
-      <c r="B49" t="s" s="7">
+      <c r="B49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C49" t="s" s="8">
+      <c r="C49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D49" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E49" s="10">
+      <c r="D49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="6">
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
         <v>43270</v>
       </c>
-      <c r="B50" t="s" s="7">
+      <c r="B50" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C50" t="s" s="8">
+      <c r="C50" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D50" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E50" t="s" s="10">
+      <c r="D50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="6">
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
         <v>43273</v>
       </c>
-      <c r="B51" t="s" s="7">
+      <c r="B51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C51" t="s" s="8">
+      <c r="C51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D51" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E51" s="10">
-        <v>.5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="6">
+      <c r="D51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
         <v>43273</v>
       </c>
-      <c r="B52" t="s" s="7">
+      <c r="B52" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C52" t="s" s="8">
+      <c r="C52" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D52" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E52" s="10">
+      <c r="D52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="6">
         <v>1.4</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="6">
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
         <v>43273</v>
       </c>
-      <c r="B53" t="s" s="7">
+      <c r="B53" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C53" t="s" s="8">
+      <c r="C53" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D53" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E53" s="10">
+      <c r="D53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="6">
         <v>10000</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>43274</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2">
+        <v>43283</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2">
+        <v>43283</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2">
+        <v>43292</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="6">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="540" windowWidth="20775" windowHeight="9915"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="65">
   <si>
     <t>Data</t>
   </si>
@@ -198,27 +203,23 @@
   </si>
   <si>
     <t>tessuto n° 11</t>
+  </si>
+  <si>
+    <t>Ravicini Cinzia</t>
+  </si>
+  <si>
+    <t>gomme</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt formatCode="@" numFmtId="165"/>
-    <numFmt formatCode="mm/dd/yyyy" numFmtId="166"/>
-    <numFmt formatCode="[hh]:mm:ss" numFmtId="167"/>
-    <numFmt formatCode="dd/mm/yyyy" numFmtId="168"/>
-    <numFmt formatCode="@" numFmtId="169"/>
-    <numFmt formatCode="@" numFmtId="170"/>
-    <numFmt formatCode="@" numFmtId="171"/>
-    <numFmt formatCode="@" numFmtId="173"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -226,7 +227,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -248,1090 +249,1393 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="170" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="171" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="173" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetFormatPr baseColWidth="21" defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="6">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
         <v>43210</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="6">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
         <v>43210</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="6">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
         <v>43210</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="8">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6">
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
         <v>43207</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s" s="8">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6">
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
         <v>43207</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s" s="8">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="6">
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
         <v>43208</v>
       </c>
-      <c r="B7" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s" s="8">
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6">
         <v>3</v>
       </c>
-      <c r="F7" t="s" s="11">
+      <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="6">
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
         <v>43216</v>
       </c>
-      <c r="B8" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s" s="8">
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="6">
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
         <v>43216</v>
       </c>
-      <c r="B9" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s" s="8">
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="6">
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
         <v>43216</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s" s="8">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="6">
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
         <v>43217</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s" s="8">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="6">
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
         <v>43217</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s" s="8">
+      <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="6">
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
         <v>43227</v>
       </c>
-      <c r="B13" t="s" s="7">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s" s="8">
+      <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="6">
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
         <v>43227</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s" s="8">
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D14" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="6">
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
         <v>43228</v>
       </c>
-      <c r="B15" t="s" s="7">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s" s="8">
+      <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D15" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6">
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
         <v>43229</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s" s="8">
+      <c r="C16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E16" s="10">
-        <v>.8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6">
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
         <v>43229</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="8">
+      <c r="C17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="6">
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
         <v>43230</v>
       </c>
-      <c r="B18" t="s" s="7">
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s" s="8">
+      <c r="C18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D18" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6">
         <v>1.5</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="6">
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>43228</v>
       </c>
-      <c r="B19" t="s" s="7">
+      <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s" s="8">
+      <c r="C19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D19" t="s" s="9">
+      <c r="D19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="6">
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
         <v>43231</v>
       </c>
-      <c r="B20" t="s" s="7">
+      <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s" s="8">
+      <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D20" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="D20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="6">
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
         <v>43231</v>
       </c>
-      <c r="B21" t="s" s="7">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C21" t="s" s="8">
+      <c r="C21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D21" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="D21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="6">
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
         <v>43235</v>
       </c>
-      <c r="B22" t="s" s="7">
+      <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C22" t="s" s="8">
+      <c r="C22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D22" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E22" s="10">
+      <c r="D22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="6">
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
         <v>43235</v>
       </c>
-      <c r="B23" t="s" s="7">
+      <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C23" t="s" s="8">
+      <c r="C23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D23" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E23" s="10">
+      <c r="D23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="6">
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
         <v>43235</v>
       </c>
-      <c r="B24" t="s" s="7">
+      <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C24" t="s" s="8">
+      <c r="C24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D24" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="D24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="6">
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
         <v>43239</v>
       </c>
-      <c r="B25" t="s" s="7">
+      <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C25" t="s" s="8">
+      <c r="C25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D25" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="D25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="6">
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
         <v>43239</v>
       </c>
-      <c r="B26" t="s" s="7">
+      <c r="B26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C26" t="s" s="8">
+      <c r="C26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D26" t="s" s="9">
+      <c r="D26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6">
+      <c r="E26" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
         <v>43241</v>
       </c>
-      <c r="B27" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s" s="8">
+      <c r="B27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D27" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="D27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="6">
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
         <v>43241</v>
       </c>
-      <c r="B28" t="s" s="7">
+      <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C28" t="s" s="8">
+      <c r="C28" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D28" t="s" s="9">
+      <c r="D28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="6">
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
         <v>43242</v>
       </c>
-      <c r="B29" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s" s="8">
+      <c r="B29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D29" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E29" s="10">
+      <c r="D29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="6">
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
         <v>43242</v>
       </c>
-      <c r="B30" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s" s="8">
+      <c r="B30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D30" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E30" s="10">
+      <c r="D30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="6">
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
         <v>43243</v>
       </c>
-      <c r="B31" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s" s="8">
+      <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D31" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="D31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="6">
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
         <v>43243</v>
       </c>
-      <c r="B32" t="s" s="7">
+      <c r="B32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C32" t="s" s="8">
+      <c r="C32" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D32" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="D32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="6">
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
         <v>43244</v>
       </c>
-      <c r="B33" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s" s="8">
+      <c r="B33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D33" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E33" s="10">
+      <c r="D33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="6">
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
         <v>43245</v>
       </c>
-      <c r="B34" t="s" s="7">
+      <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C34" t="s" s="8">
+      <c r="C34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D34" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E34" s="10">
+      <c r="D34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="6">
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
         <v>43245</v>
       </c>
-      <c r="B35" t="s" s="7">
+      <c r="B35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C35" t="s" s="8">
+      <c r="C35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D35" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E35" s="10">
+      <c r="D35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="6">
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
         <v>43249</v>
       </c>
-      <c r="B36" t="s" s="7">
+      <c r="B36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="8">
+      <c r="C36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D36" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E36" s="10">
+      <c r="D36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="6">
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
         <v>43255</v>
       </c>
-      <c r="B37" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s" s="8">
+      <c r="B37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D37" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E37" s="10">
+      <c r="D37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="6">
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
         <v>43255</v>
       </c>
-      <c r="B38" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s" s="8">
+      <c r="B38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D38" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E38" s="10">
+      <c r="D38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="6">
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
         <v>43255</v>
       </c>
-      <c r="B39" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C39" t="s" s="8">
+      <c r="B39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D39" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E39" s="10">
+      <c r="D39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="6">
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
         <v>43260</v>
       </c>
-      <c r="B40" t="s" s="7">
+      <c r="B40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C40" t="s" s="8">
+      <c r="C40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D40" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E40" s="10">
+      <c r="D40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="6">
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
         <v>43263</v>
       </c>
-      <c r="B41" t="s" s="7">
+      <c r="B41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="8">
+      <c r="C41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D41" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E41" s="10">
+      <c r="D41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="6">
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
         <v>43262</v>
       </c>
-      <c r="B42" t="s" s="7">
+      <c r="B42" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C42" t="s" s="8">
+      <c r="C42" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D42" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E42" s="10">
+      <c r="D42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="6">
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
         <v>43263</v>
       </c>
-      <c r="B43" t="s" s="7">
+      <c r="B43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C43" t="s" s="8">
+      <c r="C43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D43" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E43" s="10">
+      <c r="D43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="6">
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
         <v>43263</v>
       </c>
-      <c r="B44" t="s" s="7">
+      <c r="B44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C44" t="s" s="8">
+      <c r="C44" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D44" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E44" s="10">
+      <c r="D44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="6">
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
         <v>43265</v>
       </c>
-      <c r="B45" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C45" t="s" s="8">
+      <c r="B45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D45" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E45" s="10">
+      <c r="D45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="6">
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
         <v>43269</v>
       </c>
-      <c r="B46" t="s" s="7">
+      <c r="B46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C46" t="s" s="8">
+      <c r="C46" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D46" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E46" s="10">
+      <c r="D46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="6">
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
         <v>43269</v>
       </c>
-      <c r="B47" t="s" s="7">
+      <c r="B47" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C47" t="s" s="8">
+      <c r="C47" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D47" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E47" s="10">
+      <c r="D47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="6">
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
         <v>43270</v>
       </c>
-      <c r="B48" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s" s="8">
+      <c r="B48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D48" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E48" s="10">
+      <c r="D48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="6">
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
         <v>43271</v>
       </c>
-      <c r="B49" t="s" s="7">
+      <c r="B49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C49" t="s" s="8">
+      <c r="C49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D49" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E49" s="10">
+      <c r="D49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="6">
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
         <v>43270</v>
       </c>
-      <c r="B50" t="s" s="7">
+      <c r="B50" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C50" t="s" s="8">
+      <c r="C50" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D50" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E50" t="s" s="10">
+      <c r="D50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="6">
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
         <v>43273</v>
       </c>
-      <c r="B51" t="s" s="7">
+      <c r="B51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C51" t="s" s="8">
+      <c r="C51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D51" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E51" s="10">
-        <v>.5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="6">
+      <c r="D51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
         <v>43273</v>
       </c>
-      <c r="B52" t="s" s="7">
+      <c r="B52" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C52" t="s" s="8">
+      <c r="C52" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D52" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E52" s="10">
+      <c r="D52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="6">
         <v>1.4</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="6">
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
         <v>43273</v>
       </c>
-      <c r="B53" t="s" s="7">
+      <c r="B53" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C53" t="s" s="8">
+      <c r="C53" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D53" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="E53" s="10">
+      <c r="D53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="6">
         <v>10000</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="6">
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
         <v>43274</v>
       </c>
-      <c r="B54" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C54" t="s" s="8">
+      <c r="B54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D54" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E54" s="10">
+      <c r="D54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="6">
+    <row r="55" spans="1:5">
+      <c r="A55" s="2">
         <v>43283</v>
       </c>
-      <c r="B55" t="s" s="7">
+      <c r="B55" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C55" t="s" s="8">
+      <c r="C55" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D55" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E55" s="10">
+      <c r="D55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="6">
+    <row r="56" spans="1:5">
+      <c r="A56" s="2">
         <v>43283</v>
       </c>
-      <c r="B56" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C56" t="s" s="8">
+      <c r="B56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D56" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E56" s="10">
+      <c r="D56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="6">
+    <row r="57" spans="1:5">
+      <c r="A57" s="2">
         <v>43290</v>
       </c>
-      <c r="B57" t="s" s="7">
+      <c r="B57" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C57" t="s" s="8">
+      <c r="C57" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D57" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E57" s="10">
+      <c r="D57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="6">
+    <row r="58" spans="1:5">
+      <c r="A58" s="2">
         <v>43290</v>
       </c>
-      <c r="B58" t="s" s="7">
+      <c r="B58" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C58" t="s" s="8">
+      <c r="C58" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D58" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E58" s="10">
+      <c r="D58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="6">
+    <row r="59" spans="1:5">
+      <c r="A59" s="2">
         <v>43371</v>
       </c>
-      <c r="B59" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C59" t="s" s="8">
+      <c r="B59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D59" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E59" s="10">
+      <c r="D59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="6">
+    <row r="60" spans="1:5">
+      <c r="A60" s="2">
         <v>43371</v>
       </c>
-      <c r="B60" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C60" t="s" s="8">
+      <c r="B60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D60" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E60" s="10">
+      <c r="D60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="6">
+    <row r="61" spans="1:5">
+      <c r="A61" s="2">
         <v>43371</v>
       </c>
-      <c r="B61" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C61" t="s" s="8">
+      <c r="B61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D61" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E61" s="10">
+      <c r="D61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="6">
         <v>2</v>
       </c>
     </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2">
+        <v>43375</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="6">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="540" windowWidth="20775" windowHeight="9915"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="66">
   <si>
     <t>Data</t>
   </si>
@@ -213,21 +218,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt formatCode="@" numFmtId="165"/>
-    <numFmt formatCode="mm/dd/yyyy" numFmtId="166"/>
-    <numFmt formatCode="[hh]:mm:ss" numFmtId="167"/>
-    <numFmt formatCode="dd/mm/yyyy" numFmtId="168"/>
-    <numFmt formatCode="@" numFmtId="169"/>
-    <numFmt formatCode="@" numFmtId="170"/>
-    <numFmt formatCode="@" numFmtId="171"/>
-    <numFmt formatCode="@" numFmtId="173"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -235,7 +230,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -257,1175 +252,1514 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="170" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="171" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="173" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetFormatPr baseColWidth="21" defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="6">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
         <v>43210</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="6">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
         <v>43210</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="6">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
         <v>43210</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="8">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="9">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6">
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
         <v>43207</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s" s="8">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6">
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
         <v>43207</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s" s="8">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="6">
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
         <v>43208</v>
       </c>
-      <c r="B7" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s" s="8">
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s" s="9">
+      <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="6">
         <v>3</v>
       </c>
-      <c r="F7" t="s" s="11">
+      <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="6">
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
         <v>43216</v>
       </c>
-      <c r="B8" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s" s="8">
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="6">
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
         <v>43216</v>
       </c>
-      <c r="B9" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s" s="8">
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="6">
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
         <v>43216</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s" s="8">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="6">
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
         <v>43217</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s" s="8">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s" s="9">
+      <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="6">
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
         <v>43217</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s" s="8">
+      <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s" s="9">
+      <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="6">
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
         <v>43227</v>
       </c>
-      <c r="B13" t="s" s="7">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s" s="8">
+      <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="6">
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
         <v>43227</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s" s="8">
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D14" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="6">
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
         <v>43228</v>
       </c>
-      <c r="B15" t="s" s="7">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s" s="8">
+      <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D15" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6">
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
         <v>43229</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s" s="8">
+      <c r="C16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E16" s="10">
-        <v>.8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6">
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
         <v>43229</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="8">
+      <c r="C17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s" s="9">
+      <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="6">
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
         <v>43230</v>
       </c>
-      <c r="B18" t="s" s="7">
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s" s="8">
+      <c r="C18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D18" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6">
         <v>1.5</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="6">
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>43228</v>
       </c>
-      <c r="B19" t="s" s="7">
+      <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s" s="8">
+      <c r="C19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D19" t="s" s="9">
+      <c r="D19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="6">
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
         <v>43231</v>
       </c>
-      <c r="B20" t="s" s="7">
+      <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s" s="8">
+      <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D20" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="D20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="6">
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
         <v>43231</v>
       </c>
-      <c r="B21" t="s" s="7">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C21" t="s" s="8">
+      <c r="C21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D21" t="s" s="9">
+      <c r="D21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="6">
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
         <v>43235</v>
       </c>
-      <c r="B22" t="s" s="7">
+      <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C22" t="s" s="8">
+      <c r="C22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D22" t="s" s="9">
+      <c r="D22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="6">
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
         <v>43235</v>
       </c>
-      <c r="B23" t="s" s="7">
+      <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C23" t="s" s="8">
+      <c r="C23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D23" t="s" s="9">
+      <c r="D23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="6">
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
         <v>43235</v>
       </c>
-      <c r="B24" t="s" s="7">
+      <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C24" t="s" s="8">
+      <c r="C24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D24" t="s" s="9">
+      <c r="D24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="6">
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
         <v>43239</v>
       </c>
-      <c r="B25" t="s" s="7">
+      <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C25" t="s" s="8">
+      <c r="C25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D25" t="s" s="9">
+      <c r="D25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="6">
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
         <v>43239</v>
       </c>
-      <c r="B26" t="s" s="7">
+      <c r="B26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C26" t="s" s="8">
+      <c r="C26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D26" t="s" s="9">
+      <c r="D26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="6">
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
         <v>43241</v>
       </c>
-      <c r="B27" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s" s="8">
+      <c r="B27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D27" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="D27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="6">
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
         <v>43241</v>
       </c>
-      <c r="B28" t="s" s="7">
+      <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C28" t="s" s="8">
+      <c r="C28" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D28" t="s" s="9">
+      <c r="D28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="6">
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
         <v>43242</v>
       </c>
-      <c r="B29" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s" s="8">
+      <c r="B29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D29" t="s" s="9">
+      <c r="D29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="6">
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
         <v>43242</v>
       </c>
-      <c r="B30" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s" s="8">
+      <c r="B30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D30" t="s" s="9">
+      <c r="D30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="6">
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
         <v>43243</v>
       </c>
-      <c r="B31" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s" s="8">
+      <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D31" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="D31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="6">
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
         <v>43243</v>
       </c>
-      <c r="B32" t="s" s="7">
+      <c r="B32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C32" t="s" s="8">
+      <c r="C32" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D32" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="D32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="6">
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
         <v>43244</v>
       </c>
-      <c r="B33" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s" s="8">
+      <c r="B33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D33" t="s" s="9">
+      <c r="D33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="6">
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
         <v>43245</v>
       </c>
-      <c r="B34" t="s" s="7">
+      <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C34" t="s" s="8">
+      <c r="C34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D34" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E34" s="10">
+      <c r="D34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="6">
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
         <v>43245</v>
       </c>
-      <c r="B35" t="s" s="7">
+      <c r="B35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C35" t="s" s="8">
+      <c r="C35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D35" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E35" s="10">
+      <c r="D35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="6">
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
         <v>43249</v>
       </c>
-      <c r="B36" t="s" s="7">
+      <c r="B36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="8">
+      <c r="C36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D36" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E36" s="10">
+      <c r="D36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="6">
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
         <v>43255</v>
       </c>
-      <c r="B37" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s" s="8">
+      <c r="B37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D37" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E37" s="10">
+      <c r="D37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="6">
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
         <v>43255</v>
       </c>
-      <c r="B38" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s" s="8">
+      <c r="B38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D38" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E38" s="10">
+      <c r="D38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="6">
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
         <v>43255</v>
       </c>
-      <c r="B39" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C39" t="s" s="8">
+      <c r="B39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D39" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E39" s="10">
+      <c r="D39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="6">
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
         <v>43260</v>
       </c>
-      <c r="B40" t="s" s="7">
+      <c r="B40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C40" t="s" s="8">
+      <c r="C40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D40" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E40" s="10">
+      <c r="D40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="6">
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
         <v>43263</v>
       </c>
-      <c r="B41" t="s" s="7">
+      <c r="B41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="8">
+      <c r="C41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D41" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E41" s="10">
+      <c r="D41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="6">
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
         <v>43262</v>
       </c>
-      <c r="B42" t="s" s="7">
+      <c r="B42" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C42" t="s" s="8">
+      <c r="C42" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D42" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E42" s="10">
+      <c r="D42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="6">
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
         <v>43263</v>
       </c>
-      <c r="B43" t="s" s="7">
+      <c r="B43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C43" t="s" s="8">
+      <c r="C43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D43" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E43" s="10">
+      <c r="D43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="6">
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
         <v>43263</v>
       </c>
-      <c r="B44" t="s" s="7">
+      <c r="B44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C44" t="s" s="8">
+      <c r="C44" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D44" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E44" s="10">
+      <c r="D44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="6">
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
         <v>43265</v>
       </c>
-      <c r="B45" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C45" t="s" s="8">
+      <c r="B45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D45" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E45" s="10">
+      <c r="D45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="6">
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
         <v>43269</v>
       </c>
-      <c r="B46" t="s" s="7">
+      <c r="B46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C46" t="s" s="8">
+      <c r="C46" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D46" t="s" s="9">
+      <c r="D46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="6">
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
         <v>43269</v>
       </c>
-      <c r="B47" t="s" s="7">
+      <c r="B47" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C47" t="s" s="8">
+      <c r="C47" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D47" t="s" s="9">
+      <c r="D47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="6">
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
         <v>43270</v>
       </c>
-      <c r="B48" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s" s="8">
+      <c r="B48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D48" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E48" s="10">
+      <c r="D48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="6">
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
         <v>43271</v>
       </c>
-      <c r="B49" t="s" s="7">
+      <c r="B49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C49" t="s" s="8">
+      <c r="C49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D49" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E49" s="10">
+      <c r="D49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="6">
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
         <v>43270</v>
       </c>
-      <c r="B50" t="s" s="7">
+      <c r="B50" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C50" t="s" s="8">
+      <c r="C50" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D50" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E50" t="s" s="10">
+      <c r="D50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="6">
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
         <v>43273</v>
       </c>
-      <c r="B51" t="s" s="7">
+      <c r="B51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C51" t="s" s="8">
+      <c r="C51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D51" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E51" s="10">
-        <v>.5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="6">
+      <c r="D51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
         <v>43273</v>
       </c>
-      <c r="B52" t="s" s="7">
+      <c r="B52" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C52" t="s" s="8">
+      <c r="C52" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D52" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E52" s="10">
+      <c r="D52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="6">
         <v>1.4</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="6">
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
         <v>43273</v>
       </c>
-      <c r="B53" t="s" s="7">
+      <c r="B53" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C53" t="s" s="8">
+      <c r="C53" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D53" t="s" s="9">
+      <c r="D53" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="6">
         <v>10000</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="6">
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
         <v>43274</v>
       </c>
-      <c r="B54" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C54" t="s" s="8">
+      <c r="B54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D54" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E54" s="10">
+      <c r="D54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="6">
+    <row r="55" spans="1:5">
+      <c r="A55" s="2">
         <v>43283</v>
       </c>
-      <c r="B55" t="s" s="7">
+      <c r="B55" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C55" t="s" s="8">
+      <c r="C55" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D55" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E55" s="10">
+      <c r="D55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="6">
+    <row r="56" spans="1:5">
+      <c r="A56" s="2">
         <v>43283</v>
       </c>
-      <c r="B56" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C56" t="s" s="8">
+      <c r="B56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D56" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E56" s="10">
+      <c r="D56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="6">
+    <row r="57" spans="1:5">
+      <c r="A57" s="2">
         <v>43290</v>
       </c>
-      <c r="B57" t="s" s="7">
+      <c r="B57" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C57" t="s" s="8">
+      <c r="C57" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D57" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E57" s="10">
+      <c r="D57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="6">
+    <row r="58" spans="1:5">
+      <c r="A58" s="2">
         <v>43290</v>
       </c>
-      <c r="B58" t="s" s="7">
+      <c r="B58" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C58" t="s" s="8">
+      <c r="C58" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D58" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E58" s="10">
+      <c r="D58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="6">
+    <row r="59" spans="1:5">
+      <c r="A59" s="2">
         <v>43371</v>
       </c>
-      <c r="B59" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C59" t="s" s="8">
+      <c r="B59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D59" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E59" s="10">
+      <c r="D59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="6">
+    <row r="60" spans="1:5">
+      <c r="A60" s="2">
         <v>43371</v>
       </c>
-      <c r="B60" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C60" t="s" s="8">
+      <c r="B60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D60" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E60" s="10">
+      <c r="D60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="6">
+    <row r="61" spans="1:5">
+      <c r="A61" s="2">
         <v>43371</v>
       </c>
-      <c r="B61" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C61" t="s" s="8">
+      <c r="B61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D61" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E61" s="10">
+      <c r="D61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="6">
+    <row r="62" spans="1:5">
+      <c r="A62" s="2">
         <v>43375</v>
       </c>
-      <c r="B62" t="s" s="7">
+      <c r="B62" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C62" t="s" s="8">
+      <c r="C62" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D62" t="s" s="9">
+      <c r="D62" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="6">
+    <row r="63" spans="1:5">
+      <c r="A63" s="2">
         <v>43377</v>
       </c>
-      <c r="B63" t="s" s="7">
+      <c r="B63" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C63" t="s" s="8">
+      <c r="C63" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D63" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E63" s="10">
+      <c r="D63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="6">
         <v>1.4</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="6">
+    <row r="64" spans="1:5">
+      <c r="A64" s="2">
         <v>43377</v>
       </c>
-      <c r="B64" t="s" s="7">
+      <c r="B64" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C64" t="s" s="8">
+      <c r="C64" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D64" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E64" s="10">
-        <v>.4</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="6">
+      <c r="D64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2">
         <v>43377</v>
       </c>
-      <c r="B65" t="s" s="7">
+      <c r="B65" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C65" t="s" s="8">
+      <c r="C65" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D65" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E65" s="10">
-        <v>.4</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="6">
+      <c r="D65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2">
         <v>43377</v>
       </c>
-      <c r="B66" t="s" s="7">
+      <c r="B66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C66" t="s" s="8">
+      <c r="C66" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D66" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E66" s="10">
+      <c r="D66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="6">
         <v>1.4</v>
       </c>
     </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2">
+        <v>43381</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="6">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2">
+        <v>43381</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="6">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2">
+        <v>43381</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="6">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Data</t>
   </si>
@@ -216,6 +216,18 @@
   </si>
   <si>
     <t>ESAMI</t>
+  </si>
+  <si>
+    <t>GRADUATE (Rosy)</t>
+  </si>
+  <si>
+    <t>porta abiti lunghi</t>
+  </si>
+  <si>
+    <t>Pallini Memena</t>
+  </si>
+  <si>
+    <t>Spilli 250gr.</t>
   </si>
 </sst>
 </file>
@@ -1571,6 +1583,193 @@
         <v>15</v>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" s="6">
+        <v>43384</v>
+      </c>
+      <c r="B75" t="s" s="7">
+        <v>68</v>
+      </c>
+      <c r="C75" t="s" s="8">
+        <v>57</v>
+      </c>
+      <c r="D75" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E75" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="6">
+        <v>43384</v>
+      </c>
+      <c r="B76" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C76" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E76" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6">
+        <v>43384</v>
+      </c>
+      <c r="B77" t="s" s="7">
+        <v>68</v>
+      </c>
+      <c r="C77" t="s" s="8">
+        <v>51</v>
+      </c>
+      <c r="D77" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E77" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="6">
+        <v>43384</v>
+      </c>
+      <c r="B78" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C78" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="D78" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E78" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6">
+        <v>43385</v>
+      </c>
+      <c r="B79" t="s" s="7">
+        <v>68</v>
+      </c>
+      <c r="C79" t="s" s="8">
+        <v>57</v>
+      </c>
+      <c r="D79" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E79" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="6">
+        <v>43385</v>
+      </c>
+      <c r="B80" t="s" s="7">
+        <v>68</v>
+      </c>
+      <c r="C80" t="s" s="8">
+        <v>51</v>
+      </c>
+      <c r="D80" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E80" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6">
+        <v>43389</v>
+      </c>
+      <c r="B81" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="C81" t="s" s="8">
+        <v>51</v>
+      </c>
+      <c r="D81" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E81" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="6">
+        <v>43390</v>
+      </c>
+      <c r="B82" t="s" s="7">
+        <v>69</v>
+      </c>
+      <c r="C82" t="s" s="8">
+        <v>70</v>
+      </c>
+      <c r="D82" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="E82" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6">
+        <v>43391</v>
+      </c>
+      <c r="B83" t="s" s="7">
+        <v>71</v>
+      </c>
+      <c r="C83" t="s" s="8">
+        <v>72</v>
+      </c>
+      <c r="D83" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="E83" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="6">
+        <v>43391</v>
+      </c>
+      <c r="B84" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="C84" t="s" s="8">
+        <v>72</v>
+      </c>
+      <c r="D84" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="E84" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6">
+        <v>43385</v>
+      </c>
+      <c r="B85" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C85" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="D85" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E85" s="10">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -1755,19 +1755,70 @@
     </row>
     <row r="85">
       <c r="A85" s="6">
-        <v>43385</v>
+        <v>43392</v>
       </c>
       <c r="B85" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C85" t="s" s="8">
+        <v>51</v>
+      </c>
+      <c r="D85" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E85" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="6">
+        <v>43392</v>
+      </c>
+      <c r="B86" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C86" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="D86" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E86" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6">
+        <v>43395</v>
+      </c>
+      <c r="B87" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="C87" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="D87" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E87" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="6">
+        <v>43396</v>
+      </c>
+      <c r="B88" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="C88" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="D88" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E88" s="10">
         <v>31</v>
-      </c>
-      <c r="C85" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="D85" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E85" s="10">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="540" windowWidth="20775" windowHeight="9915"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="76">
   <si>
     <t>Data</t>
   </si>
@@ -228,27 +233,26 @@
   </si>
   <si>
     <t>Spilli 250gr.</t>
+  </si>
+  <si>
+    <t>Gommina Bianca</t>
+  </si>
+  <si>
+    <t>Tessuto C</t>
+  </si>
+  <si>
+    <t>Fodera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt formatCode="@" numFmtId="165"/>
-    <numFmt formatCode="mm/dd/yyyy" numFmtId="166"/>
-    <numFmt formatCode="[hh]:mm:ss" numFmtId="167"/>
-    <numFmt formatCode="dd/mm/yyyy" numFmtId="168"/>
-    <numFmt formatCode="@" numFmtId="169"/>
-    <numFmt formatCode="@" numFmtId="170"/>
-    <numFmt formatCode="@" numFmtId="171"/>
-    <numFmt formatCode="@" numFmtId="173"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -256,7 +260,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -278,1549 +282,1988 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="170" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="171" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="173" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetFormatPr baseColWidth="21" defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="6">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
         <v>43210</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="6">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
         <v>43210</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="6">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
         <v>43210</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="8">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="9">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6">
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
         <v>43207</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s" s="8">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6">
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
         <v>43207</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s" s="8">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="6">
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
         <v>43208</v>
       </c>
-      <c r="B7" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s" s="8">
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s" s="9">
+      <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="6">
         <v>3</v>
       </c>
-      <c r="F7" t="s" s="11">
+      <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="6">
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
         <v>43216</v>
       </c>
-      <c r="B8" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s" s="8">
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="6">
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
         <v>43216</v>
       </c>
-      <c r="B9" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s" s="8">
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="6">
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
         <v>43216</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s" s="8">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="6">
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
         <v>43217</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s" s="8">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s" s="9">
+      <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="6">
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
         <v>43217</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s" s="8">
+      <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s" s="9">
+      <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="6">
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
         <v>43227</v>
       </c>
-      <c r="B13" t="s" s="7">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s" s="8">
+      <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="6">
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
         <v>43227</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s" s="8">
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D14" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="6">
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
         <v>43228</v>
       </c>
-      <c r="B15" t="s" s="7">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s" s="8">
+      <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D15" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6">
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
         <v>43229</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s" s="8">
+      <c r="C16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E16" s="10">
-        <v>.8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6">
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
         <v>43229</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="8">
+      <c r="C17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s" s="9">
+      <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="6">
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
         <v>43230</v>
       </c>
-      <c r="B18" t="s" s="7">
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s" s="8">
+      <c r="C18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D18" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6">
         <v>1.5</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="6">
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>43228</v>
       </c>
-      <c r="B19" t="s" s="7">
+      <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s" s="8">
+      <c r="C19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D19" t="s" s="9">
+      <c r="D19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="6">
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
         <v>43231</v>
       </c>
-      <c r="B20" t="s" s="7">
+      <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s" s="8">
+      <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D20" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="D20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="6">
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
         <v>43231</v>
       </c>
-      <c r="B21" t="s" s="7">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C21" t="s" s="8">
+      <c r="C21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D21" t="s" s="9">
+      <c r="D21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="6">
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
         <v>43235</v>
       </c>
-      <c r="B22" t="s" s="7">
+      <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C22" t="s" s="8">
+      <c r="C22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D22" t="s" s="9">
+      <c r="D22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="6">
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
         <v>43235</v>
       </c>
-      <c r="B23" t="s" s="7">
+      <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C23" t="s" s="8">
+      <c r="C23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D23" t="s" s="9">
+      <c r="D23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="6">
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
         <v>43235</v>
       </c>
-      <c r="B24" t="s" s="7">
+      <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C24" t="s" s="8">
+      <c r="C24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D24" t="s" s="9">
+      <c r="D24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="6">
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
         <v>43239</v>
       </c>
-      <c r="B25" t="s" s="7">
+      <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C25" t="s" s="8">
+      <c r="C25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D25" t="s" s="9">
+      <c r="D25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="6">
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
         <v>43239</v>
       </c>
-      <c r="B26" t="s" s="7">
+      <c r="B26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C26" t="s" s="8">
+      <c r="C26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D26" t="s" s="9">
+      <c r="D26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="6">
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
         <v>43241</v>
       </c>
-      <c r="B27" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s" s="8">
+      <c r="B27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D27" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="D27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="6">
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
         <v>43241</v>
       </c>
-      <c r="B28" t="s" s="7">
+      <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C28" t="s" s="8">
+      <c r="C28" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D28" t="s" s="9">
+      <c r="D28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="6">
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
         <v>43242</v>
       </c>
-      <c r="B29" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s" s="8">
+      <c r="B29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D29" t="s" s="9">
+      <c r="D29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="6">
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
         <v>43242</v>
       </c>
-      <c r="B30" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s" s="8">
+      <c r="B30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D30" t="s" s="9">
+      <c r="D30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="6">
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
         <v>43243</v>
       </c>
-      <c r="B31" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s" s="8">
+      <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D31" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="D31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="6">
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
         <v>43243</v>
       </c>
-      <c r="B32" t="s" s="7">
+      <c r="B32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C32" t="s" s="8">
+      <c r="C32" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D32" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="D32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="6">
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
         <v>43244</v>
       </c>
-      <c r="B33" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s" s="8">
+      <c r="B33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D33" t="s" s="9">
+      <c r="D33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="6">
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
         <v>43245</v>
       </c>
-      <c r="B34" t="s" s="7">
+      <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C34" t="s" s="8">
+      <c r="C34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D34" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E34" s="10">
+      <c r="D34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="6">
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
         <v>43245</v>
       </c>
-      <c r="B35" t="s" s="7">
+      <c r="B35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C35" t="s" s="8">
+      <c r="C35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D35" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E35" s="10">
+      <c r="D35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="6">
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
         <v>43249</v>
       </c>
-      <c r="B36" t="s" s="7">
+      <c r="B36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="8">
+      <c r="C36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D36" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E36" s="10">
+      <c r="D36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="6">
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
         <v>43255</v>
       </c>
-      <c r="B37" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s" s="8">
+      <c r="B37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D37" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E37" s="10">
+      <c r="D37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="6">
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
         <v>43255</v>
       </c>
-      <c r="B38" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s" s="8">
+      <c r="B38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D38" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E38" s="10">
+      <c r="D38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="6">
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
         <v>43255</v>
       </c>
-      <c r="B39" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C39" t="s" s="8">
+      <c r="B39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D39" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E39" s="10">
+      <c r="D39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="6">
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
         <v>43260</v>
       </c>
-      <c r="B40" t="s" s="7">
+      <c r="B40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C40" t="s" s="8">
+      <c r="C40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D40" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E40" s="10">
+      <c r="D40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="6">
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
         <v>43263</v>
       </c>
-      <c r="B41" t="s" s="7">
+      <c r="B41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="8">
+      <c r="C41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D41" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E41" s="10">
+      <c r="D41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="6">
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
         <v>43262</v>
       </c>
-      <c r="B42" t="s" s="7">
+      <c r="B42" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C42" t="s" s="8">
+      <c r="C42" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D42" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E42" s="10">
+      <c r="D42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="6">
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
         <v>43263</v>
       </c>
-      <c r="B43" t="s" s="7">
+      <c r="B43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C43" t="s" s="8">
+      <c r="C43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D43" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E43" s="10">
+      <c r="D43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="6">
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
         <v>43263</v>
       </c>
-      <c r="B44" t="s" s="7">
+      <c r="B44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C44" t="s" s="8">
+      <c r="C44" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D44" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E44" s="10">
+      <c r="D44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="6">
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
         <v>43265</v>
       </c>
-      <c r="B45" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C45" t="s" s="8">
+      <c r="B45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D45" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E45" s="10">
+      <c r="D45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="6">
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
         <v>43269</v>
       </c>
-      <c r="B46" t="s" s="7">
+      <c r="B46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C46" t="s" s="8">
+      <c r="C46" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D46" t="s" s="9">
+      <c r="D46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="6">
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
         <v>43269</v>
       </c>
-      <c r="B47" t="s" s="7">
+      <c r="B47" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C47" t="s" s="8">
+      <c r="C47" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D47" t="s" s="9">
+      <c r="D47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="6">
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
         <v>43270</v>
       </c>
-      <c r="B48" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s" s="8">
+      <c r="B48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D48" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E48" s="10">
+      <c r="D48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="6">
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
         <v>43271</v>
       </c>
-      <c r="B49" t="s" s="7">
+      <c r="B49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C49" t="s" s="8">
+      <c r="C49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D49" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E49" s="10">
+      <c r="D49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="6">
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
         <v>43270</v>
       </c>
-      <c r="B50" t="s" s="7">
+      <c r="B50" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C50" t="s" s="8">
+      <c r="C50" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D50" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E50" t="s" s="10">
+      <c r="D50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="6">
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
         <v>43273</v>
       </c>
-      <c r="B51" t="s" s="7">
+      <c r="B51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C51" t="s" s="8">
+      <c r="C51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D51" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E51" s="10">
-        <v>.5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="6">
+      <c r="D51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
         <v>43273</v>
       </c>
-      <c r="B52" t="s" s="7">
+      <c r="B52" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C52" t="s" s="8">
+      <c r="C52" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D52" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E52" s="10">
+      <c r="D52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="6">
         <v>1.4</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="6">
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
         <v>43273</v>
       </c>
-      <c r="B53" t="s" s="7">
+      <c r="B53" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C53" t="s" s="8">
+      <c r="C53" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D53" t="s" s="9">
+      <c r="D53" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="6">
         <v>10000</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="6">
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
         <v>43274</v>
       </c>
-      <c r="B54" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C54" t="s" s="8">
+      <c r="B54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D54" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E54" s="10">
+      <c r="D54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="6">
+    <row r="55" spans="1:5">
+      <c r="A55" s="2">
         <v>43283</v>
       </c>
-      <c r="B55" t="s" s="7">
+      <c r="B55" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C55" t="s" s="8">
+      <c r="C55" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D55" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E55" s="10">
+      <c r="D55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="6">
+    <row r="56" spans="1:5">
+      <c r="A56" s="2">
         <v>43283</v>
       </c>
-      <c r="B56" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C56" t="s" s="8">
+      <c r="B56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D56" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E56" s="10">
+      <c r="D56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="6">
+    <row r="57" spans="1:5">
+      <c r="A57" s="2">
         <v>43290</v>
       </c>
-      <c r="B57" t="s" s="7">
+      <c r="B57" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C57" t="s" s="8">
+      <c r="C57" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D57" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E57" s="10">
+      <c r="D57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="6">
+    <row r="58" spans="1:5">
+      <c r="A58" s="2">
         <v>43290</v>
       </c>
-      <c r="B58" t="s" s="7">
+      <c r="B58" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C58" t="s" s="8">
+      <c r="C58" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D58" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E58" s="10">
+      <c r="D58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="6">
+    <row r="59" spans="1:5">
+      <c r="A59" s="2">
         <v>43371</v>
       </c>
-      <c r="B59" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C59" t="s" s="8">
+      <c r="B59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D59" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E59" s="10">
+      <c r="D59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="6">
+    <row r="60" spans="1:5">
+      <c r="A60" s="2">
         <v>43371</v>
       </c>
-      <c r="B60" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C60" t="s" s="8">
+      <c r="B60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D60" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E60" s="10">
+      <c r="D60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="6">
+    <row r="61" spans="1:5">
+      <c r="A61" s="2">
         <v>43371</v>
       </c>
-      <c r="B61" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C61" t="s" s="8">
+      <c r="B61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D61" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E61" s="10">
+      <c r="D61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="6">
+    <row r="62" spans="1:5">
+      <c r="A62" s="2">
         <v>43375</v>
       </c>
-      <c r="B62" t="s" s="7">
+      <c r="B62" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C62" t="s" s="8">
+      <c r="C62" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D62" t="s" s="9">
+      <c r="D62" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="6">
+    <row r="63" spans="1:5">
+      <c r="A63" s="2">
         <v>43377</v>
       </c>
-      <c r="B63" t="s" s="7">
+      <c r="B63" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C63" t="s" s="8">
+      <c r="C63" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D63" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E63" s="10">
+      <c r="D63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="6">
         <v>1.4</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="6">
+    <row r="64" spans="1:5">
+      <c r="A64" s="2">
         <v>43377</v>
       </c>
-      <c r="B64" t="s" s="7">
+      <c r="B64" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C64" t="s" s="8">
+      <c r="C64" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D64" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E64" s="10">
-        <v>.4</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="6">
+      <c r="D64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2">
         <v>43377</v>
       </c>
-      <c r="B65" t="s" s="7">
+      <c r="B65" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C65" t="s" s="8">
+      <c r="C65" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D65" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E65" s="10">
-        <v>.4</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="6">
+      <c r="D65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2">
         <v>43377</v>
       </c>
-      <c r="B66" t="s" s="7">
+      <c r="B66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C66" t="s" s="8">
+      <c r="C66" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D66" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E66" s="10">
+      <c r="D66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="6">
         <v>1.4</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="6">
+    <row r="67" spans="1:5">
+      <c r="A67" s="2">
         <v>43381</v>
       </c>
-      <c r="B67" t="s" s="7">
+      <c r="B67" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C67" t="s" s="8">
+      <c r="C67" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D67" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E67" s="10">
+      <c r="D67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="6">
         <v>1360</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="6">
+    <row r="68" spans="1:5">
+      <c r="A68" s="2">
         <v>43381</v>
       </c>
-      <c r="B68" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C68" t="s" s="8">
+      <c r="B68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D68" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E68" s="10">
+      <c r="D68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="6">
         <v>1360</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="6">
+    <row r="69" spans="1:5">
+      <c r="A69" s="2">
         <v>43381</v>
       </c>
-      <c r="B69" t="s" s="7">
+      <c r="B69" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C69" t="s" s="8">
+      <c r="C69" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D69" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E69" s="10">
+      <c r="D69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="6">
+    <row r="70" spans="1:5">
+      <c r="A70" s="2">
         <v>43381</v>
       </c>
-      <c r="B70" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C70" t="s" s="8">
+      <c r="B70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D70" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E70" s="10">
+      <c r="D70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="6">
+    <row r="71" spans="1:5">
+      <c r="A71" s="2">
         <v>43381</v>
       </c>
-      <c r="B71" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C71" t="s" s="8">
+      <c r="B71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D71" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E71" s="10">
+      <c r="D71" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="6">
+    <row r="72" spans="1:5">
+      <c r="A72" s="2">
         <v>43383</v>
       </c>
-      <c r="B72" t="s" s="7">
+      <c r="B72" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C72" t="s" s="8">
+      <c r="C72" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D72" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E72" s="10">
+      <c r="D72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="6">
+    <row r="73" spans="1:5">
+      <c r="A73" s="2">
         <v>43383</v>
       </c>
-      <c r="B73" t="s" s="7">
+      <c r="B73" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C73" t="s" s="8">
+      <c r="C73" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D73" t="s" s="9">
+      <c r="D73" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="6">
+    <row r="74" spans="1:5">
+      <c r="A74" s="2">
         <v>43384</v>
       </c>
-      <c r="B74" t="s" s="7">
+      <c r="B74" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C74" t="s" s="8">
+      <c r="C74" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D74" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E74" s="10">
+      <c r="D74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="6">
+    <row r="75" spans="1:5">
+      <c r="A75" s="2">
         <v>43384</v>
       </c>
-      <c r="B75" t="s" s="7">
+      <c r="B75" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C75" t="s" s="8">
+      <c r="C75" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D75" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E75" s="10">
+      <c r="D75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="6">
+    <row r="76" spans="1:5">
+      <c r="A76" s="2">
         <v>43384</v>
       </c>
-      <c r="B76" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C76" t="s" s="8">
+      <c r="B76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D76" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E76" s="10">
+      <c r="D76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="6">
+    <row r="77" spans="1:5">
+      <c r="A77" s="2">
         <v>43384</v>
       </c>
-      <c r="B77" t="s" s="7">
+      <c r="B77" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C77" t="s" s="8">
+      <c r="C77" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D77" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E77" s="10">
+      <c r="D77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="6">
+    <row r="78" spans="1:5">
+      <c r="A78" s="2">
         <v>43384</v>
       </c>
-      <c r="B78" t="s" s="7">
+      <c r="B78" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C78" t="s" s="8">
+      <c r="C78" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D78" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E78" s="10">
+      <c r="D78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="6">
+    <row r="79" spans="1:5">
+      <c r="A79" s="2">
         <v>43385</v>
       </c>
-      <c r="B79" t="s" s="7">
+      <c r="B79" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C79" t="s" s="8">
+      <c r="C79" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D79" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E79" s="10">
+      <c r="D79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="6">
+    <row r="80" spans="1:5">
+      <c r="A80" s="2">
         <v>43385</v>
       </c>
-      <c r="B80" t="s" s="7">
+      <c r="B80" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C80" t="s" s="8">
+      <c r="C80" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D80" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E80" s="10">
+      <c r="D80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="6">
+    <row r="81" spans="1:5">
+      <c r="A81" s="2">
         <v>43389</v>
       </c>
-      <c r="B81" t="s" s="7">
+      <c r="B81" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C81" t="s" s="8">
+      <c r="C81" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D81" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E81" s="10">
+      <c r="D81" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="6">
+    <row r="82" spans="1:5">
+      <c r="A82" s="2">
         <v>43390</v>
       </c>
-      <c r="B82" t="s" s="7">
+      <c r="B82" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C82" t="s" s="8">
+      <c r="C82" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D82" t="s" s="9">
+      <c r="D82" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E82" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="6">
+    <row r="83" spans="1:5">
+      <c r="A83" s="2">
         <v>43391</v>
       </c>
-      <c r="B83" t="s" s="7">
+      <c r="B83" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C83" t="s" s="8">
+      <c r="C83" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D83" t="s" s="9">
+      <c r="D83" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E83" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="6">
+    <row r="84" spans="1:5">
+      <c r="A84" s="2">
         <v>43391</v>
       </c>
-      <c r="B84" t="s" s="7">
+      <c r="B84" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C84" t="s" s="8">
+      <c r="C84" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D84" t="s" s="9">
+      <c r="D84" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E84" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="6">
+    <row r="85" spans="1:5">
+      <c r="A85" s="2">
         <v>43392</v>
       </c>
-      <c r="B85" t="s" s="7">
+      <c r="B85" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C85" t="s" s="8">
+      <c r="C85" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D85" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E85" s="10">
+      <c r="D85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="6">
+    <row r="86" spans="1:5">
+      <c r="A86" s="2">
         <v>43392</v>
       </c>
-      <c r="B86" t="s" s="7">
+      <c r="B86" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C86" t="s" s="8">
+      <c r="C86" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D86" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E86" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="6">
+      <c r="D86" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="2">
         <v>43395</v>
       </c>
-      <c r="B87" t="s" s="7">
+      <c r="B87" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C87" t="s" s="8">
+      <c r="C87" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D87" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E87" s="10">
+      <c r="D87" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="6">
+    <row r="88" spans="1:5">
+      <c r="A88" s="2">
         <v>43396</v>
       </c>
-      <c r="B88" t="s" s="7">
+      <c r="B88" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C88" t="s" s="8">
+      <c r="C88" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D88" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E88" s="10">
+      <c r="D88" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="6">
         <v>31</v>
       </c>
     </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="2">
+        <v>43398</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2">
+        <v>43399</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2">
+        <v>43399</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2">
+        <v>43399</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2">
+        <v>43399</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2">
+        <v>43399</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2">
+        <v>43399</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2">
+        <v>43399</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="6">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2">
+        <v>43399</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="6">
+        <v>1.6</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -1487,7 +1487,7 @@
         <v>8</v>
       </c>
       <c r="E68" s="10">
-        <v>1360</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="69">
@@ -1983,6 +1983,23 @@
         <v>1.6</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" s="6">
+        <v>43399</v>
+      </c>
+      <c r="B98" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C98" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="D98" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E98" s="10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/prelievi.xlsx
+++ b/prelievi.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Data</t>
   </si>
@@ -102,6 +102,21 @@
   </si>
   <si>
     <t>Tela Orchidea Adesivata</t>
+  </si>
+  <si>
+    <t>Tessuto C</t>
+  </si>
+  <si>
+    <t>Fodera Nera</t>
+  </si>
+  <si>
+    <t>Jersey  Azzurro</t>
+  </si>
+  <si>
+    <t>Jersey Azzurro</t>
+  </si>
+  <si>
+    <t>Marsicovetere Maria</t>
   </si>
 </sst>
 </file>
@@ -825,6 +840,142 @@
         <v>12</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="6">
+        <v>43424</v>
+      </c>
+      <c r="B38" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="D38" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E38" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6">
+        <v>43424</v>
+      </c>
+      <c r="B39" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E39" s="10">
+        <v>.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6">
+        <v>43424</v>
+      </c>
+      <c r="B40" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="D40" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E40" s="10">
+        <v>.8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6">
+        <v>43424</v>
+      </c>
+      <c r="B41" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E41" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6">
+        <v>43430</v>
+      </c>
+      <c r="B42" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E42" s="10">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6">
+        <v>43432</v>
+      </c>
+      <c r="B43" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="D43" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E43" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6">
+        <v>43433</v>
+      </c>
+      <c r="B44" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E44" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6">
+        <v>43433</v>
+      </c>
+      <c r="B45" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E45" s="10">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>